--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7368243333333333</v>
+        <v>1.609109</v>
       </c>
       <c r="H2">
-        <v>2.210473</v>
+        <v>4.827326999999999</v>
       </c>
       <c r="I2">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="J2">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.990118666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N2">
-        <v>23.970356</v>
+        <v>0.694584</v>
       </c>
       <c r="O2">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P2">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q2">
-        <v>5.887313859820889</v>
+        <v>0.3725537885519999</v>
       </c>
       <c r="R2">
-        <v>52.985824738388</v>
+        <v>3.352984096968</v>
       </c>
       <c r="S2">
-        <v>0.0004594197571177216</v>
+        <v>1.763410377870416E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004594197571177215</v>
+        <v>1.763410377870416E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7368243333333333</v>
+        <v>1.609109</v>
       </c>
       <c r="H3">
-        <v>2.210473</v>
+        <v>4.827326999999999</v>
       </c>
       <c r="I3">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="J3">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>194.9392826666666</v>
+        <v>19.926526</v>
       </c>
       <c r="N3">
-        <v>584.8178479999999</v>
+        <v>59.779578</v>
       </c>
       <c r="O3">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P3">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q3">
-        <v>143.6360069913449</v>
+        <v>32.06395232533399</v>
       </c>
       <c r="R3">
-        <v>1292.724062922104</v>
+        <v>288.575570928006</v>
       </c>
       <c r="S3">
-        <v>0.01120871436729052</v>
+        <v>0.001517684372659232</v>
       </c>
       <c r="T3">
-        <v>0.01120871436729052</v>
+        <v>0.001517684372659232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7368243333333333</v>
+        <v>1.609109</v>
       </c>
       <c r="H4">
-        <v>2.210473</v>
+        <v>4.827326999999999</v>
       </c>
       <c r="I4">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="J4">
-        <v>0.01173863955848454</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.226213666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N4">
-        <v>3.678641</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O4">
-        <v>0.006006269612847371</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P4">
-        <v>0.00600626961284737</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q4">
-        <v>0.9035040674658887</v>
+        <v>419.2383117536557</v>
       </c>
       <c r="R4">
-        <v>8.131536607192999</v>
+        <v>3773.144805782901</v>
       </c>
       <c r="S4">
-        <v>7.050543407629375E-05</v>
+        <v>0.01984382423329139</v>
       </c>
       <c r="T4">
-        <v>7.050543407629374E-05</v>
+        <v>0.01984382423329139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4529966666666667</v>
+        <v>1.609109</v>
       </c>
       <c r="H5">
-        <v>1.35899</v>
+        <v>4.827326999999999</v>
       </c>
       <c r="I5">
-        <v>0.007216868866339874</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="J5">
-        <v>0.007216868866339874</v>
+        <v>0.02159055430943564</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.990118666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N5">
-        <v>23.970356</v>
+        <v>8.327223</v>
       </c>
       <c r="O5">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P5">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q5">
-        <v>3.619497122271111</v>
+        <v>4.466469824769</v>
       </c>
       <c r="R5">
-        <v>32.57547410044</v>
+        <v>40.198228422921</v>
       </c>
       <c r="S5">
-        <v>0.0002824494376205511</v>
+        <v>0.0002114115997063166</v>
       </c>
       <c r="T5">
-        <v>0.0002824494376205511</v>
+        <v>0.0002114115997063166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1.35899</v>
       </c>
       <c r="I6">
-        <v>0.007216868866339874</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="J6">
-        <v>0.007216868866339874</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>194.9392826666666</v>
+        <v>0.231528</v>
       </c>
       <c r="N6">
-        <v>584.8178479999999</v>
+        <v>0.694584</v>
       </c>
       <c r="O6">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P6">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q6">
-        <v>88.30684525039109</v>
+        <v>0.10488141224</v>
       </c>
       <c r="R6">
-        <v>794.7616072535199</v>
+        <v>0.9439327101599999</v>
       </c>
       <c r="S6">
-        <v>0.006891072968547522</v>
+        <v>4.964356194270902E-06</v>
       </c>
       <c r="T6">
-        <v>0.006891072968547522</v>
+        <v>4.964356194270902E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1.35899</v>
       </c>
       <c r="I7">
-        <v>0.007216868866339874</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="J7">
-        <v>0.007216868866339874</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226213666666667</v>
+        <v>19.926526</v>
       </c>
       <c r="N7">
-        <v>3.678641</v>
+        <v>59.779578</v>
       </c>
       <c r="O7">
-        <v>0.006006269612847371</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P7">
-        <v>0.00600626961284737</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q7">
-        <v>0.5554707036211111</v>
+        <v>9.026649856246665</v>
       </c>
       <c r="R7">
-        <v>4.99923633259</v>
+        <v>81.23984870622</v>
       </c>
       <c r="S7">
-        <v>4.334646017180144E-05</v>
+        <v>0.0004272587884765565</v>
       </c>
       <c r="T7">
-        <v>4.334646017180144E-05</v>
+        <v>0.0004272587884765565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.950891666666667</v>
+        <v>0.4529966666666667</v>
       </c>
       <c r="H8">
-        <v>8.852675</v>
+        <v>1.35899</v>
       </c>
       <c r="I8">
-        <v>0.04701182097831871</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="J8">
-        <v>0.04701182097831871</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.990118666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N8">
-        <v>23.970356</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O8">
-        <v>0.03913739363311985</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P8">
-        <v>0.03913739363311985</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q8">
-        <v>23.57797458914444</v>
+        <v>118.0240479441522</v>
       </c>
       <c r="R8">
-        <v>212.2017713023</v>
+        <v>1062.21643149737</v>
       </c>
       <c r="S8">
-        <v>0.001839920143038221</v>
+        <v>0.005586437109978393</v>
       </c>
       <c r="T8">
-        <v>0.001839920143038221</v>
+        <v>0.005586437109978392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.950891666666667</v>
+        <v>0.4529966666666667</v>
       </c>
       <c r="H9">
-        <v>8.852675</v>
+        <v>1.35899</v>
       </c>
       <c r="I9">
-        <v>0.04701182097831871</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="J9">
-        <v>0.04701182097831871</v>
+        <v>0.006078176887743454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.9392826666666</v>
+        <v>2.775741</v>
       </c>
       <c r="N9">
-        <v>584.8178479999999</v>
+        <v>8.327223</v>
       </c>
       <c r="O9">
-        <v>0.9548563367540328</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P9">
-        <v>0.9548563367540328</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q9">
-        <v>575.2447047270443</v>
+        <v>1.25740142053</v>
       </c>
       <c r="R9">
-        <v>5177.202342543399</v>
+        <v>11.31661278477</v>
       </c>
       <c r="S9">
-        <v>0.0448895351634938</v>
+        <v>5.951663309423356E-05</v>
       </c>
       <c r="T9">
-        <v>0.0448895351634938</v>
+        <v>5.951663309423356E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.950891666666667</v>
+        <v>4.939483666666667</v>
       </c>
       <c r="H10">
-        <v>8.852675</v>
+        <v>14.818451</v>
       </c>
       <c r="I10">
-        <v>0.04701182097831871</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="J10">
-        <v>0.04701182097831871</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.226213666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N10">
-        <v>3.678641</v>
+        <v>0.694584</v>
       </c>
       <c r="O10">
-        <v>0.006006269612847371</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P10">
-        <v>0.00600626961284737</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q10">
-        <v>3.618423690519444</v>
+        <v>1.143628774376</v>
       </c>
       <c r="R10">
-        <v>32.565813214675</v>
+        <v>10.292658969384</v>
       </c>
       <c r="S10">
-        <v>0.0002823656717866962</v>
+        <v>5.413142775984359E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002823656717866962</v>
+        <v>5.413142775984359E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.288267</v>
+        <v>4.939483666666667</v>
       </c>
       <c r="H11">
-        <v>3.864801</v>
+        <v>14.818451</v>
       </c>
       <c r="I11">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="J11">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>7.990118666666667</v>
+        <v>19.926526</v>
       </c>
       <c r="N11">
-        <v>23.970356</v>
+        <v>59.779578</v>
       </c>
       <c r="O11">
-        <v>0.03913739363311985</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P11">
-        <v>0.03913739363311985</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q11">
-        <v>10.29340620435067</v>
+        <v>98.42674971040867</v>
       </c>
       <c r="R11">
-        <v>92.640655839156</v>
+        <v>885.840747393678</v>
       </c>
       <c r="S11">
-        <v>0.0008032515831355223</v>
+        <v>0.004658837387588737</v>
       </c>
       <c r="T11">
-        <v>0.0008032515831355222</v>
+        <v>0.004658837387588737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.288267</v>
+        <v>4.939483666666667</v>
       </c>
       <c r="H12">
-        <v>3.864801</v>
+        <v>14.818451</v>
       </c>
       <c r="I12">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="J12">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>194.9392826666666</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N12">
-        <v>584.8178479999999</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O12">
-        <v>0.9548563367540328</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P12">
-        <v>0.9548563367540328</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q12">
-        <v>251.1338448631386</v>
+        <v>1286.936306582146</v>
       </c>
       <c r="R12">
-        <v>2260.204603768248</v>
+        <v>11582.42675923931</v>
       </c>
       <c r="S12">
-        <v>0.01959736694156354</v>
+        <v>0.06091460906908545</v>
       </c>
       <c r="T12">
-        <v>0.01959736694156354</v>
+        <v>0.06091460906908545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.288267</v>
+        <v>4.939483666666667</v>
       </c>
       <c r="H13">
-        <v>3.864801</v>
+        <v>14.818451</v>
       </c>
       <c r="I13">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="J13">
-        <v>0.02052389054481579</v>
+        <v>0.06627654830451944</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226213666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N13">
-        <v>3.678641</v>
+        <v>8.327223</v>
       </c>
       <c r="O13">
-        <v>0.006006269612847371</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P13">
-        <v>0.00600626961284737</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q13">
-        <v>1.579690601715667</v>
+        <v>13.710727332397</v>
       </c>
       <c r="R13">
-        <v>14.217215415441</v>
+        <v>123.396545991573</v>
       </c>
       <c r="S13">
-        <v>0.0001232720201167326</v>
+        <v>0.0006489704200854154</v>
       </c>
       <c r="T13">
-        <v>0.0001232720201167325</v>
+        <v>0.0006489704200854153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.73461133333334</v>
+        <v>0.222556</v>
       </c>
       <c r="H14">
-        <v>170.203834</v>
+        <v>0.667668</v>
       </c>
       <c r="I14">
-        <v>0.903861507830286</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="J14">
-        <v>0.9038615078302861</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>7.990118666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N14">
-        <v>23.970356</v>
+        <v>0.694584</v>
       </c>
       <c r="O14">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P14">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q14">
-        <v>453.316277060545</v>
+        <v>0.051527945568</v>
       </c>
       <c r="R14">
-        <v>4079.846493544905</v>
+        <v>0.463751510112</v>
       </c>
       <c r="S14">
-        <v>0.03537478362177914</v>
+        <v>2.438974364429808E-06</v>
       </c>
       <c r="T14">
-        <v>0.03537478362177914</v>
+        <v>2.438974364429808E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.73461133333334</v>
+        <v>0.222556</v>
       </c>
       <c r="H15">
-        <v>170.203834</v>
+        <v>0.667668</v>
       </c>
       <c r="I15">
-        <v>0.903861507830286</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="J15">
-        <v>0.9038615078302861</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>194.9392826666666</v>
+        <v>19.926526</v>
       </c>
       <c r="N15">
-        <v>584.8178479999999</v>
+        <v>59.779578</v>
       </c>
       <c r="O15">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P15">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q15">
-        <v>11059.80443569214</v>
+        <v>4.434767920456</v>
       </c>
       <c r="R15">
-        <v>99538.23992122924</v>
+        <v>39.91291128410401</v>
       </c>
       <c r="S15">
-        <v>0.8630578882998033</v>
+        <v>0.0002099110521670988</v>
       </c>
       <c r="T15">
-        <v>0.8630578882998035</v>
+        <v>0.0002099110521670988</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.73461133333334</v>
+        <v>0.222556</v>
       </c>
       <c r="H16">
-        <v>170.203834</v>
+        <v>0.667668</v>
       </c>
       <c r="I16">
-        <v>0.903861507830286</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="J16">
-        <v>0.9038615078302861</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.226213666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N16">
-        <v>3.678641</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O16">
-        <v>0.006006269612847371</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P16">
-        <v>0.00600626961284737</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q16">
-        <v>69.56875578995489</v>
+        <v>57.98488586580934</v>
       </c>
       <c r="R16">
-        <v>626.1188021095941</v>
+        <v>521.863972792284</v>
       </c>
       <c r="S16">
-        <v>0.005428835908703453</v>
+        <v>0.002744600984808611</v>
       </c>
       <c r="T16">
-        <v>0.005428835908703453</v>
+        <v>0.00274460098480861</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6055510000000001</v>
+        <v>0.222556</v>
       </c>
       <c r="H17">
-        <v>1.816653</v>
+        <v>0.667668</v>
       </c>
       <c r="I17">
-        <v>0.009647272221755078</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="J17">
-        <v>0.009647272221755078</v>
+        <v>0.002986191367328602</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>7.990118666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N17">
-        <v>23.970356</v>
+        <v>8.327223</v>
       </c>
       <c r="O17">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P17">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q17">
-        <v>4.838424348718667</v>
+        <v>0.617757813996</v>
       </c>
       <c r="R17">
-        <v>43.545819138468</v>
+        <v>5.559820325964</v>
       </c>
       <c r="S17">
-        <v>0.0003775690904286912</v>
+        <v>2.924035598846256E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003775690904286911</v>
+        <v>2.924035598846256E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,108 +1535,480 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6055510000000001</v>
+        <v>66.48416533333334</v>
       </c>
       <c r="H18">
-        <v>1.816653</v>
+        <v>199.452496</v>
       </c>
       <c r="I18">
-        <v>0.009647272221755078</v>
+        <v>0.8920651008395527</v>
       </c>
       <c r="J18">
-        <v>0.009647272221755078</v>
+        <v>0.8920651008395526</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>194.9392826666666</v>
+        <v>0.231528</v>
       </c>
       <c r="N18">
-        <v>584.8178479999999</v>
+        <v>0.694584</v>
       </c>
       <c r="O18">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P18">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q18">
-        <v>118.0456775580827</v>
+        <v>15.392945831296</v>
       </c>
       <c r="R18">
-        <v>1062.411098022744</v>
+        <v>138.536512481664</v>
       </c>
       <c r="S18">
-        <v>0.009211759013333994</v>
+        <v>0.0007285949374023299</v>
       </c>
       <c r="T18">
-        <v>0.009211759013333994</v>
+        <v>0.0007285949374023299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>66.48416533333334</v>
+      </c>
+      <c r="H19">
+        <v>199.452496</v>
+      </c>
+      <c r="I19">
+        <v>0.8920651008395527</v>
+      </c>
+      <c r="J19">
+        <v>0.8920651008395526</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.926526</v>
+      </c>
+      <c r="N19">
+        <v>59.779578</v>
+      </c>
+      <c r="O19">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="P19">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="Q19">
+        <v>1324.798449102965</v>
+      </c>
+      <c r="R19">
+        <v>11923.18604192669</v>
+      </c>
+      <c r="S19">
+        <v>0.06270673941646755</v>
+      </c>
+      <c r="T19">
+        <v>0.06270673941646755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>66.48416533333334</v>
+      </c>
+      <c r="H20">
+        <v>199.452496</v>
+      </c>
+      <c r="I20">
+        <v>0.8920651008395527</v>
+      </c>
+      <c r="J20">
+        <v>0.8920651008395526</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>260.5406543333334</v>
+      </c>
+      <c r="N20">
+        <v>781.6219630000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9190974881371673</v>
+      </c>
+      <c r="P20">
+        <v>0.9190974881371672</v>
+      </c>
+      <c r="Q20">
+        <v>17321.82793875218</v>
+      </c>
+      <c r="R20">
+        <v>155896.4514487697</v>
+      </c>
+      <c r="S20">
+        <v>0.8198947934364618</v>
+      </c>
+      <c r="T20">
+        <v>0.8198947934364615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>66.48416533333334</v>
+      </c>
+      <c r="H21">
+        <v>199.452496</v>
+      </c>
+      <c r="I21">
+        <v>0.8920651008395527</v>
+      </c>
+      <c r="J21">
+        <v>0.8920651008395526</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.775741</v>
+      </c>
+      <c r="N21">
+        <v>8.327223</v>
+      </c>
+      <c r="O21">
+        <v>0.009791856043914731</v>
+      </c>
+      <c r="P21">
+        <v>0.009791856043914729</v>
+      </c>
+      <c r="Q21">
+        <v>184.542823566512</v>
+      </c>
+      <c r="R21">
+        <v>1660.885412098608</v>
+      </c>
+      <c r="S21">
+        <v>0.008734973049221178</v>
+      </c>
+      <c r="T21">
+        <v>0.008734973049221176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6055510000000001</v>
-      </c>
-      <c r="H19">
-        <v>1.816653</v>
-      </c>
-      <c r="I19">
-        <v>0.009647272221755078</v>
-      </c>
-      <c r="J19">
-        <v>0.009647272221755078</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>1.226213666666667</v>
-      </c>
-      <c r="N19">
-        <v>3.678641</v>
-      </c>
-      <c r="O19">
-        <v>0.006006269612847371</v>
-      </c>
-      <c r="P19">
-        <v>0.00600626961284737</v>
-      </c>
-      <c r="Q19">
-        <v>0.7425349120636666</v>
-      </c>
-      <c r="R19">
-        <v>6.682814208573</v>
-      </c>
-      <c r="S19">
-        <v>5.794411799239407E-05</v>
-      </c>
-      <c r="T19">
-        <v>5.794411799239406E-05</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8200676666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.460203</v>
+      </c>
+      <c r="I22">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="J22">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.231528</v>
+      </c>
+      <c r="N22">
+        <v>0.694584</v>
+      </c>
+      <c r="O22">
+        <v>0.0008167508590086357</v>
+      </c>
+      <c r="P22">
+        <v>0.0008167508590086357</v>
+      </c>
+      <c r="Q22">
+        <v>0.189868626728</v>
+      </c>
+      <c r="R22">
+        <v>1.708817640552</v>
+      </c>
+      <c r="S22">
+        <v>8.987059509057355E-06</v>
+      </c>
+      <c r="T22">
+        <v>8.987059509057355E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8200676666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.460203</v>
+      </c>
+      <c r="I23">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="J23">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.926526</v>
+      </c>
+      <c r="N23">
+        <v>59.779578</v>
+      </c>
+      <c r="O23">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="P23">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="Q23">
+        <v>16.34109968159267</v>
+      </c>
+      <c r="R23">
+        <v>147.069897134334</v>
+      </c>
+      <c r="S23">
+        <v>0.0007734739425502688</v>
+      </c>
+      <c r="T23">
+        <v>0.0007734739425502688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8200676666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.460203</v>
+      </c>
+      <c r="I24">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="J24">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>260.5406543333334</v>
+      </c>
+      <c r="N24">
+        <v>781.6219630000001</v>
+      </c>
+      <c r="O24">
+        <v>0.9190974881371673</v>
+      </c>
+      <c r="P24">
+        <v>0.9190974881371672</v>
+      </c>
+      <c r="Q24">
+        <v>213.6609664709432</v>
+      </c>
+      <c r="R24">
+        <v>1922.948698238489</v>
+      </c>
+      <c r="S24">
+        <v>0.01011322330354173</v>
+      </c>
+      <c r="T24">
+        <v>0.01011322330354173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8200676666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.460203</v>
+      </c>
+      <c r="I25">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="J25">
+        <v>0.01100342829142018</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.775741</v>
+      </c>
+      <c r="N25">
+        <v>8.327223</v>
+      </c>
+      <c r="O25">
+        <v>0.009791856043914731</v>
+      </c>
+      <c r="P25">
+        <v>0.009791856043914729</v>
+      </c>
+      <c r="Q25">
+        <v>2.276295445141</v>
+      </c>
+      <c r="R25">
+        <v>20.486659006269</v>
+      </c>
+      <c r="S25">
+        <v>0.000107743985819125</v>
+      </c>
+      <c r="T25">
+        <v>0.000107743985819125</v>
       </c>
     </row>
   </sheetData>
